--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第18章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第18章 角色统计.xlsx
@@ -52,6 +52,9 @@
     <t>波特</t>
   </si>
   <si>
+    <t>宾斯</t>
+  </si>
+  <si>
     <t>海格</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>邓布利多</t>
-  </si>
-  <si>
-    <t>宾斯</t>
   </si>
   <si>
     <t>皮皮鬼</t>
@@ -572,40 +572,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -627,18 +627,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
